--- a/artfynd/A 36371-2022.xlsx
+++ b/artfynd/A 36371-2022.xlsx
@@ -2043,10 +2043,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111575796</v>
+        <v>111573533</v>
       </c>
       <c r="B13" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2055,25 +2055,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2084,10 +2084,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562855.7640570825</v>
+        <v>562701.9737813871</v>
       </c>
       <c r="R13" t="n">
-        <v>6954651.349091855</v>
+        <v>6954788.374143652</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2156,7 +2156,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111575868</v>
+        <v>111574030</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>562854.9195222461</v>
+        <v>562576.2301468613</v>
       </c>
       <c r="R14" t="n">
-        <v>6954623.341454657</v>
+        <v>6954852.517936011</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2242,7 +2242,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>15:23</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2269,10 +2274,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111574240</v>
+        <v>111576401</v>
       </c>
       <c r="B15" t="n">
-        <v>56543</v>
+        <v>89369</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2281,32 +2286,28 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103021</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2314,10 +2315,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562533.1227179464</v>
+        <v>562964.914807545</v>
       </c>
       <c r="R15" t="n">
-        <v>6954848.029061474</v>
+        <v>6954710.791209211</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2349,7 +2350,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2359,12 +2360,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:26</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Familj med 5 talltitor. Permanent revir</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2391,10 +2387,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111574429</v>
+        <v>111573803</v>
       </c>
       <c r="B16" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2403,25 +2399,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2432,10 +2428,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>562547.0565141424</v>
+        <v>562591.0245237258</v>
       </c>
       <c r="R16" t="n">
-        <v>6954767.535469687</v>
+        <v>6954847.751526525</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2467,7 +2463,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2477,7 +2473,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2504,7 +2500,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111574030</v>
+        <v>111574128</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2545,10 +2541,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>562576.2301468613</v>
+        <v>562555.4143375416</v>
       </c>
       <c r="R17" t="n">
-        <v>6954852.517936011</v>
+        <v>6954835.60431945</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2580,7 +2576,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2590,12 +2586,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:23</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2622,10 +2613,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111578127</v>
+        <v>111573866</v>
       </c>
       <c r="B18" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2634,44 +2625,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>562937.8205991766</v>
+        <v>562601.7570288588</v>
       </c>
       <c r="R18" t="n">
-        <v>6954541.406048392</v>
+        <v>6954814.918206804</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2703,7 +2689,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2713,7 +2699,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2740,10 +2726,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111573746</v>
+        <v>111574429</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2752,25 +2738,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2781,10 +2767,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>562601.7570288588</v>
+        <v>562547.0565141424</v>
       </c>
       <c r="R19" t="n">
-        <v>6954814.918206804</v>
+        <v>6954767.535469687</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2816,7 +2802,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2826,7 +2812,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2853,10 +2839,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111574689</v>
+        <v>111576037</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2865,25 +2851,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2894,10 +2880,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562517.0252856832</v>
+        <v>562852.9463231879</v>
       </c>
       <c r="R20" t="n">
-        <v>6954776.14289257</v>
+        <v>6954606.325244571</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2929,7 +2915,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2939,7 +2925,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2966,10 +2952,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111574403</v>
+        <v>111575785</v>
       </c>
       <c r="B21" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2978,25 +2964,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3007,10 +2993,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562547.0565141424</v>
+        <v>562859.2727272335</v>
       </c>
       <c r="R21" t="n">
-        <v>6954767.535469687</v>
+        <v>6954660.134623887</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3042,7 +3028,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3052,7 +3038,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3079,7 +3065,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111573569</v>
+        <v>111575868</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3120,10 +3106,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562701.9737813871</v>
+        <v>562854.9195222461</v>
       </c>
       <c r="R22" t="n">
-        <v>6954788.374143652</v>
+        <v>6954623.341454657</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3155,7 +3141,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3165,7 +3151,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3192,10 +3178,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111574334</v>
+        <v>111574338</v>
       </c>
       <c r="B23" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3208,21 +3194,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3305,7 +3291,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111574509</v>
+        <v>111576771</v>
       </c>
       <c r="B24" t="n">
         <v>96348</v>
@@ -3346,10 +3332,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>562529.1073683554</v>
+        <v>562807.4867926922</v>
       </c>
       <c r="R24" t="n">
-        <v>6954769.030357216</v>
+        <v>6954821.585021482</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3381,7 +3367,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3391,7 +3377,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3418,10 +3404,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111576037</v>
+        <v>111578233</v>
       </c>
       <c r="B25" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3430,25 +3416,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3459,10 +3445,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>562852.9463231879</v>
+        <v>563026.0554397166</v>
       </c>
       <c r="R25" t="n">
-        <v>6954606.325244571</v>
+        <v>6954541.256262898</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3494,7 +3480,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3504,7 +3490,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3531,10 +3517,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111573803</v>
+        <v>111574334</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3543,25 +3529,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3572,10 +3558,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>562591.0245237258</v>
+        <v>562557.3535548041</v>
       </c>
       <c r="R26" t="n">
-        <v>6954847.751526525</v>
+        <v>6954757.635990249</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3607,7 +3593,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3617,7 +3603,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3644,7 +3630,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111574128</v>
+        <v>111574509</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3685,10 +3671,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>562555.4143375416</v>
+        <v>562529.1073683554</v>
       </c>
       <c r="R27" t="n">
-        <v>6954835.60431945</v>
+        <v>6954769.030357216</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3720,7 +3706,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3730,7 +3716,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3757,10 +3743,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111574338</v>
+        <v>111574689</v>
       </c>
       <c r="B28" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3769,25 +3755,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3798,10 +3784,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>562557.3535548041</v>
+        <v>562517.0252856832</v>
       </c>
       <c r="R28" t="n">
-        <v>6954757.635990249</v>
+        <v>6954776.14289257</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3833,7 +3819,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3843,7 +3829,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3870,10 +3856,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111576450</v>
+        <v>111574403</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3882,25 +3868,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3911,10 +3897,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>562979.5212303887</v>
+        <v>562547.0565141424</v>
       </c>
       <c r="R29" t="n">
-        <v>6954739.97881452</v>
+        <v>6954767.535469687</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3946,7 +3932,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3956,12 +3942,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>17:10</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3988,10 +3969,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111578197</v>
+        <v>111574240</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4000,28 +3981,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4029,10 +4014,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>563026.0554397166</v>
+        <v>562533.1227179464</v>
       </c>
       <c r="R30" t="n">
-        <v>6954541.256262898</v>
+        <v>6954848.029061474</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4064,7 +4049,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4074,7 +4059,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:26</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Familj med 5 talltitor. Permanent revir</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4101,10 +4091,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111575785</v>
+        <v>111578127</v>
       </c>
       <c r="B31" t="n">
-        <v>89845</v>
+        <v>56543</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4113,39 +4103,44 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1209</v>
+        <v>103021</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>562859.2727272335</v>
+        <v>562937.8205991766</v>
       </c>
       <c r="R31" t="n">
-        <v>6954660.134623887</v>
+        <v>6954541.406048392</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4177,7 +4172,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4187,7 +4182,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4214,10 +4209,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111576771</v>
+        <v>111575796</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4226,25 +4221,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4255,10 +4250,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>562807.4867926922</v>
+        <v>562855.7640570825</v>
       </c>
       <c r="R32" t="n">
-        <v>6954821.585021482</v>
+        <v>6954651.349091855</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4290,7 +4285,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4300,7 +4295,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4327,10 +4322,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111576401</v>
+        <v>111576450</v>
       </c>
       <c r="B33" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4339,25 +4334,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4368,10 +4363,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>562964.914807545</v>
+        <v>562979.5212303887</v>
       </c>
       <c r="R33" t="n">
-        <v>6954710.791209211</v>
+        <v>6954739.97881452</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4403,7 +4398,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4413,7 +4408,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 36371-2022.xlsx
+++ b/artfynd/A 36371-2022.xlsx
@@ -2043,10 +2043,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111573533</v>
+        <v>111574334</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2055,25 +2055,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2084,10 +2084,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562701.9737813871</v>
+        <v>562557.3535548041</v>
       </c>
       <c r="R13" t="n">
-        <v>6954788.374143652</v>
+        <v>6954757.635990249</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2156,7 +2156,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111574030</v>
+        <v>111574128</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>562576.2301468613</v>
+        <v>562555.4143375416</v>
       </c>
       <c r="R14" t="n">
-        <v>6954852.517936011</v>
+        <v>6954835.60431945</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2242,12 +2242,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:23</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2274,10 +2269,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111576401</v>
+        <v>111575868</v>
       </c>
       <c r="B15" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2286,25 +2281,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2315,10 +2310,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562964.914807545</v>
+        <v>562854.9195222461</v>
       </c>
       <c r="R15" t="n">
-        <v>6954710.791209211</v>
+        <v>6954623.341454657</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2350,7 +2345,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2360,7 +2355,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2387,7 +2382,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111573803</v>
+        <v>111573569</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2428,10 +2423,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>562591.0245237258</v>
+        <v>562701.9737813871</v>
       </c>
       <c r="R16" t="n">
-        <v>6954847.751526525</v>
+        <v>6954788.374143652</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2463,7 +2458,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2473,7 +2468,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2500,10 +2495,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111574128</v>
+        <v>111575785</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2516,21 +2511,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2541,10 +2536,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>562555.4143375416</v>
+        <v>562859.2727272335</v>
       </c>
       <c r="R17" t="n">
-        <v>6954835.60431945</v>
+        <v>6954660.134623887</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2576,7 +2571,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2586,7 +2581,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2613,10 +2608,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111573866</v>
+        <v>111574338</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2625,25 +2620,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2654,10 +2649,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>562601.7570288588</v>
+        <v>562557.3535548041</v>
       </c>
       <c r="R18" t="n">
-        <v>6954814.918206804</v>
+        <v>6954757.635990249</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2689,7 +2684,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2699,7 +2694,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2726,10 +2721,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111574429</v>
+        <v>111578127</v>
       </c>
       <c r="B19" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2742,35 +2737,40 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>562547.0565141424</v>
+        <v>562937.8205991766</v>
       </c>
       <c r="R19" t="n">
-        <v>6954767.535469687</v>
+        <v>6954541.406048392</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2839,10 +2839,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111576037</v>
+        <v>111574509</v>
       </c>
       <c r="B20" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2851,25 +2851,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2880,10 +2880,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562852.9463231879</v>
+        <v>562529.1073683554</v>
       </c>
       <c r="R20" t="n">
-        <v>6954606.325244571</v>
+        <v>6954769.030357216</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2952,10 +2952,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111575785</v>
+        <v>111574689</v>
       </c>
       <c r="B21" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2968,21 +2968,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2993,10 +2993,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562859.2727272335</v>
+        <v>562517.0252856832</v>
       </c>
       <c r="R21" t="n">
-        <v>6954660.134623887</v>
+        <v>6954776.14289257</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3065,7 +3065,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111575868</v>
+        <v>111576771</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562854.9195222461</v>
+        <v>562807.4867926922</v>
       </c>
       <c r="R22" t="n">
-        <v>6954623.341454657</v>
+        <v>6954821.585021482</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3178,10 +3178,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111574338</v>
+        <v>111576450</v>
       </c>
       <c r="B23" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3190,25 +3190,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3219,10 +3219,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562557.3535548041</v>
+        <v>562979.5212303887</v>
       </c>
       <c r="R23" t="n">
-        <v>6954757.635990249</v>
+        <v>6954739.97881452</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3264,7 +3264,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3291,10 +3296,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111576771</v>
+        <v>111574429</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3303,25 +3308,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3332,10 +3337,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>562807.4867926922</v>
+        <v>562547.0565141424</v>
       </c>
       <c r="R24" t="n">
-        <v>6954821.585021482</v>
+        <v>6954767.535469687</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3367,7 +3372,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3377,7 +3382,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3404,10 +3409,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111578233</v>
+        <v>111574403</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3416,25 +3421,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3445,10 +3450,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>563026.0554397166</v>
+        <v>562547.0565141424</v>
       </c>
       <c r="R25" t="n">
-        <v>6954541.256262898</v>
+        <v>6954767.535469687</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3480,7 +3485,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3490,7 +3495,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3517,10 +3522,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111574334</v>
+        <v>111574030</v>
       </c>
       <c r="B26" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3529,25 +3534,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3558,10 +3563,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>562557.3535548041</v>
+        <v>562576.2301468613</v>
       </c>
       <c r="R26" t="n">
-        <v>6954757.635990249</v>
+        <v>6954852.517936011</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3593,7 +3598,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3603,7 +3608,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:23</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3630,10 +3640,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111574509</v>
+        <v>111576037</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3642,25 +3652,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3671,10 +3681,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>562529.1073683554</v>
+        <v>562852.9463231879</v>
       </c>
       <c r="R27" t="n">
-        <v>6954769.030357216</v>
+        <v>6954606.325244571</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3706,7 +3716,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3716,7 +3726,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3743,7 +3753,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111574689</v>
+        <v>111578233</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3784,10 +3794,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>562517.0252856832</v>
+        <v>563026.0554397166</v>
       </c>
       <c r="R28" t="n">
-        <v>6954776.14289257</v>
+        <v>6954541.256262898</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3819,7 +3829,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3829,7 +3839,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3856,10 +3866,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111574403</v>
+        <v>111574240</v>
       </c>
       <c r="B29" t="n">
-        <v>89686</v>
+        <v>56543</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3872,24 +3882,28 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>658</v>
+        <v>103021</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3897,10 +3911,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>562547.0565141424</v>
+        <v>562533.1227179464</v>
       </c>
       <c r="R29" t="n">
-        <v>6954767.535469687</v>
+        <v>6954848.029061474</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3943,6 +3957,11 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>15:26</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Familj med 5 talltitor. Permanent revir</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3969,10 +3988,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111574240</v>
+        <v>111573746</v>
       </c>
       <c r="B30" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3981,32 +4000,28 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4014,10 +4029,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>562533.1227179464</v>
+        <v>562601.7570288588</v>
       </c>
       <c r="R30" t="n">
-        <v>6954848.029061474</v>
+        <v>6954814.918206804</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4049,7 +4064,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4059,12 +4074,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>15:26</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Familj med 5 talltitor. Permanent revir</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4091,10 +4101,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111578127</v>
+        <v>111576401</v>
       </c>
       <c r="B31" t="n">
-        <v>56543</v>
+        <v>89369</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4103,44 +4113,39 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>103021</v>
+        <v>5447</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>562937.8205991766</v>
+        <v>562964.914807545</v>
       </c>
       <c r="R31" t="n">
-        <v>6954541.406048392</v>
+        <v>6954710.791209211</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4172,7 +4177,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4182,7 +4187,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4322,7 +4327,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111576450</v>
+        <v>111573803</v>
       </c>
       <c r="B33" t="n">
         <v>96348</v>
@@ -4363,10 +4368,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>562979.5212303887</v>
+        <v>562591.0245237258</v>
       </c>
       <c r="R33" t="n">
-        <v>6954739.97881452</v>
+        <v>6954847.751526525</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4398,7 +4403,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4408,12 +4413,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>17:10</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 36371-2022.xlsx
+++ b/artfynd/A 36371-2022.xlsx
@@ -2156,10 +2156,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111574128</v>
+        <v>111574403</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2168,25 +2168,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>562555.4143375416</v>
+        <v>562547.0565141424</v>
       </c>
       <c r="R14" t="n">
-        <v>6954835.60431945</v>
+        <v>6954767.535469687</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111575868</v>
+        <v>111573866</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2310,10 +2310,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562854.9195222461</v>
+        <v>562601.7570288588</v>
       </c>
       <c r="R15" t="n">
-        <v>6954623.341454657</v>
+        <v>6954814.918206804</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2382,7 +2382,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111573569</v>
+        <v>111573533</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2495,10 +2495,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111575785</v>
+        <v>111574338</v>
       </c>
       <c r="B17" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2507,25 +2507,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2536,10 +2536,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>562859.2727272335</v>
+        <v>562557.3535548041</v>
       </c>
       <c r="R17" t="n">
-        <v>6954660.134623887</v>
+        <v>6954757.635990249</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2608,10 +2608,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111574338</v>
+        <v>111573803</v>
       </c>
       <c r="B18" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2620,25 +2620,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>562557.3535548041</v>
+        <v>562591.0245237258</v>
       </c>
       <c r="R18" t="n">
-        <v>6954757.635990249</v>
+        <v>6954847.751526525</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2721,10 +2721,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111578127</v>
+        <v>111574509</v>
       </c>
       <c r="B19" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2733,44 +2733,39 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>562937.8205991766</v>
+        <v>562529.1073683554</v>
       </c>
       <c r="R19" t="n">
-        <v>6954541.406048392</v>
+        <v>6954769.030357216</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2802,7 +2797,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2812,7 +2807,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2839,10 +2834,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111574509</v>
+        <v>111574240</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2851,28 +2846,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2880,10 +2879,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562529.1073683554</v>
+        <v>562533.1227179464</v>
       </c>
       <c r="R20" t="n">
-        <v>6954769.030357216</v>
+        <v>6954848.029061474</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2915,7 +2914,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2925,7 +2924,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:26</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Familj med 5 talltitor. Permanent revir</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2952,7 +2956,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111574689</v>
+        <v>111573948</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2993,10 +2997,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562517.0252856832</v>
+        <v>562576.2301468613</v>
       </c>
       <c r="R21" t="n">
-        <v>6954776.14289257</v>
+        <v>6954852.517936011</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3028,7 +3032,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3038,7 +3042,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3065,7 +3069,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111576771</v>
+        <v>111576450</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3106,10 +3110,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562807.4867926922</v>
+        <v>562979.5212303887</v>
       </c>
       <c r="R22" t="n">
-        <v>6954821.585021482</v>
+        <v>6954739.97881452</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3141,7 +3145,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3151,7 +3155,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3178,7 +3187,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111576450</v>
+        <v>111574689</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3219,10 +3228,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562979.5212303887</v>
+        <v>562517.0252856832</v>
       </c>
       <c r="R23" t="n">
-        <v>6954739.97881452</v>
+        <v>6954776.14289257</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3254,7 +3263,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3264,12 +3273,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>17:10</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3409,10 +3413,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111574403</v>
+        <v>111574128</v>
       </c>
       <c r="B25" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3421,25 +3425,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3450,10 +3454,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>562547.0565141424</v>
+        <v>562555.4143375416</v>
       </c>
       <c r="R25" t="n">
-        <v>6954767.535469687</v>
+        <v>6954835.60431945</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3522,7 +3526,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111574030</v>
+        <v>111578233</v>
       </c>
       <c r="B26" t="n">
         <v>96348</v>
@@ -3563,10 +3567,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>562576.2301468613</v>
+        <v>563026.0554397166</v>
       </c>
       <c r="R26" t="n">
-        <v>6954852.517936011</v>
+        <v>6954541.256262898</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3598,7 +3602,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3608,12 +3612,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:23</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3640,10 +3639,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111576037</v>
+        <v>111575868</v>
       </c>
       <c r="B27" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3652,25 +3651,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3681,10 +3680,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>562852.9463231879</v>
+        <v>562854.9195222461</v>
       </c>
       <c r="R27" t="n">
-        <v>6954606.325244571</v>
+        <v>6954623.341454657</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3716,7 +3715,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3726,7 +3725,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3753,10 +3752,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111578233</v>
+        <v>111578127</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3765,39 +3764,44 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>563026.0554397166</v>
+        <v>562937.8205991766</v>
       </c>
       <c r="R28" t="n">
-        <v>6954541.256262898</v>
+        <v>6954541.406048392</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3829,7 +3833,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3839,7 +3843,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3866,10 +3870,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111574240</v>
+        <v>111576771</v>
       </c>
       <c r="B29" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3878,32 +3882,28 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3911,10 +3911,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>562533.1227179464</v>
+        <v>562807.4867926922</v>
       </c>
       <c r="R29" t="n">
-        <v>6954848.029061474</v>
+        <v>6954821.585021482</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3956,12 +3956,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>15:26</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Familj med 5 talltitor. Permanent revir</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3988,10 +3983,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111573746</v>
+        <v>111576037</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4000,25 +3995,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4029,10 +4024,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>562601.7570288588</v>
+        <v>562852.9463231879</v>
       </c>
       <c r="R30" t="n">
-        <v>6954814.918206804</v>
+        <v>6954606.325244571</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4064,7 +4059,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4074,7 +4069,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4101,10 +4096,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111576401</v>
+        <v>111575785</v>
       </c>
       <c r="B31" t="n">
-        <v>89369</v>
+        <v>89845</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4113,25 +4108,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5447</v>
+        <v>1209</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4142,10 +4137,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>562964.914807545</v>
+        <v>562859.2727272335</v>
       </c>
       <c r="R31" t="n">
-        <v>6954710.791209211</v>
+        <v>6954660.134623887</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4177,7 +4172,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4187,7 +4182,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4327,10 +4322,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111573803</v>
+        <v>111576401</v>
       </c>
       <c r="B33" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4339,25 +4334,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4368,10 +4363,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>562591.0245237258</v>
+        <v>562964.914807545</v>
       </c>
       <c r="R33" t="n">
-        <v>6954847.751526525</v>
+        <v>6954710.791209211</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4403,7 +4398,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4413,7 +4408,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 36371-2022.xlsx
+++ b/artfynd/A 36371-2022.xlsx
@@ -2043,10 +2043,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111574334</v>
+        <v>111578233</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2055,25 +2055,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2084,10 +2084,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562557.3535548041</v>
+        <v>563026.0554397166</v>
       </c>
       <c r="R13" t="n">
-        <v>6954757.635990249</v>
+        <v>6954541.256262898</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2156,10 +2156,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111574403</v>
+        <v>111574429</v>
       </c>
       <c r="B14" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2172,21 +2172,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2269,7 +2269,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111573866</v>
+        <v>111573533</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2310,10 +2310,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562601.7570288588</v>
+        <v>562701.9737813871</v>
       </c>
       <c r="R15" t="n">
-        <v>6954814.918206804</v>
+        <v>6954788.374143652</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2382,7 +2382,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111573533</v>
+        <v>111573948</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2423,10 +2423,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>562701.9737813871</v>
+        <v>562576.2301468613</v>
       </c>
       <c r="R16" t="n">
-        <v>6954788.374143652</v>
+        <v>6954852.517936011</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2495,10 +2495,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111574338</v>
+        <v>111574240</v>
       </c>
       <c r="B17" t="n">
-        <v>89686</v>
+        <v>56543</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2511,24 +2511,28 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>658</v>
+        <v>103021</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2536,10 +2540,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>562557.3535548041</v>
+        <v>562533.1227179464</v>
       </c>
       <c r="R17" t="n">
-        <v>6954757.635990249</v>
+        <v>6954848.029061474</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2582,6 +2586,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>15:26</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Familj med 5 talltitor. Permanent revir</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2608,7 +2617,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111573803</v>
+        <v>111573746</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2649,10 +2658,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>562591.0245237258</v>
+        <v>562601.7570288588</v>
       </c>
       <c r="R18" t="n">
-        <v>6954847.751526525</v>
+        <v>6954814.918206804</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2684,7 +2693,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2694,7 +2703,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2721,10 +2730,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111574509</v>
+        <v>111576401</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2733,25 +2742,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2762,10 +2771,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>562529.1073683554</v>
+        <v>562964.914807545</v>
       </c>
       <c r="R19" t="n">
-        <v>6954769.030357216</v>
+        <v>6954710.791209211</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2797,7 +2806,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2807,7 +2816,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2834,10 +2843,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111574240</v>
+        <v>111575796</v>
       </c>
       <c r="B20" t="n">
-        <v>56543</v>
+        <v>89686</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2850,28 +2859,24 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>658</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2879,10 +2884,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562533.1227179464</v>
+        <v>562855.7640570825</v>
       </c>
       <c r="R20" t="n">
-        <v>6954848.029061474</v>
+        <v>6954651.349091855</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2914,7 +2919,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2924,12 +2929,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:26</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Familj med 5 talltitor. Permanent revir</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2956,7 +2956,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111573948</v>
+        <v>111575868</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562576.2301468613</v>
+        <v>562854.9195222461</v>
       </c>
       <c r="R21" t="n">
-        <v>6954852.517936011</v>
+        <v>6954623.341454657</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3069,7 +3069,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111576450</v>
+        <v>111576771</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3110,10 +3110,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562979.5212303887</v>
+        <v>562807.4867926922</v>
       </c>
       <c r="R22" t="n">
-        <v>6954739.97881452</v>
+        <v>6954821.585021482</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3155,12 +3155,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:10</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3187,7 +3182,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111574689</v>
+        <v>111574509</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3228,10 +3223,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562517.0252856832</v>
+        <v>562529.1073683554</v>
       </c>
       <c r="R23" t="n">
-        <v>6954776.14289257</v>
+        <v>6954769.030357216</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3263,7 +3258,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3273,7 +3268,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3300,10 +3295,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111574429</v>
+        <v>111578127</v>
       </c>
       <c r="B24" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3316,35 +3311,40 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>562547.0565141424</v>
+        <v>562937.8205991766</v>
       </c>
       <c r="R24" t="n">
-        <v>6954767.535469687</v>
+        <v>6954541.406048392</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3413,7 +3413,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111574128</v>
+        <v>111576450</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>562555.4143375416</v>
+        <v>562979.5212303887</v>
       </c>
       <c r="R25" t="n">
-        <v>6954835.60431945</v>
+        <v>6954739.97881452</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3499,7 +3499,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3526,7 +3531,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111578233</v>
+        <v>111574128</v>
       </c>
       <c r="B26" t="n">
         <v>96348</v>
@@ -3567,10 +3572,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>563026.0554397166</v>
+        <v>562555.4143375416</v>
       </c>
       <c r="R26" t="n">
-        <v>6954541.256262898</v>
+        <v>6954835.60431945</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3602,7 +3607,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3612,7 +3617,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3639,7 +3644,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111575868</v>
+        <v>111574689</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3680,10 +3685,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>562854.9195222461</v>
+        <v>562517.0252856832</v>
       </c>
       <c r="R27" t="n">
-        <v>6954623.341454657</v>
+        <v>6954776.14289257</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3715,7 +3720,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3725,7 +3730,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3752,10 +3757,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111578127</v>
+        <v>111575785</v>
       </c>
       <c r="B28" t="n">
-        <v>56543</v>
+        <v>89845</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3764,44 +3769,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>103021</v>
+        <v>1209</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>562937.8205991766</v>
+        <v>562859.2727272335</v>
       </c>
       <c r="R28" t="n">
-        <v>6954541.406048392</v>
+        <v>6954660.134623887</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3870,10 +3870,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111576771</v>
+        <v>111574334</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3882,25 +3882,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3911,10 +3911,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>562807.4867926922</v>
+        <v>562557.3535548041</v>
       </c>
       <c r="R29" t="n">
-        <v>6954821.585021482</v>
+        <v>6954757.635990249</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3983,7 +3983,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111576037</v>
+        <v>111574403</v>
       </c>
       <c r="B30" t="n">
         <v>89686</v>
@@ -4024,10 +4024,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>562852.9463231879</v>
+        <v>562547.0565141424</v>
       </c>
       <c r="R30" t="n">
-        <v>6954606.325244571</v>
+        <v>6954767.535469687</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4096,10 +4096,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111575785</v>
+        <v>111574338</v>
       </c>
       <c r="B31" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4108,25 +4108,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4137,10 +4137,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>562859.2727272335</v>
+        <v>562557.3535548041</v>
       </c>
       <c r="R31" t="n">
-        <v>6954660.134623887</v>
+        <v>6954757.635990249</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4209,10 +4209,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111575796</v>
+        <v>111573803</v>
       </c>
       <c r="B32" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4221,25 +4221,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4250,10 +4250,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>562855.7640570825</v>
+        <v>562591.0245237258</v>
       </c>
       <c r="R32" t="n">
-        <v>6954651.349091855</v>
+        <v>6954847.751526525</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4322,10 +4322,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111576401</v>
+        <v>111576037</v>
       </c>
       <c r="B33" t="n">
-        <v>89369</v>
+        <v>89686</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4334,25 +4334,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5447</v>
+        <v>658</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4363,10 +4363,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>562964.914807545</v>
+        <v>562852.9463231879</v>
       </c>
       <c r="R33" t="n">
-        <v>6954710.791209211</v>
+        <v>6954606.325244571</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>

--- a/artfynd/A 36371-2022.xlsx
+++ b/artfynd/A 36371-2022.xlsx
@@ -3069,7 +3069,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111576771</v>
+        <v>111574509</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3110,10 +3110,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562807.4867926922</v>
+        <v>562529.1073683554</v>
       </c>
       <c r="R22" t="n">
-        <v>6954821.585021482</v>
+        <v>6954769.030357216</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3182,7 +3182,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111574509</v>
+        <v>111576771</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3223,10 +3223,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562529.1073683554</v>
+        <v>562807.4867926922</v>
       </c>
       <c r="R23" t="n">
-        <v>6954769.030357216</v>
+        <v>6954821.585021482</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3413,7 +3413,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111576450</v>
+        <v>111574128</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>562979.5212303887</v>
+        <v>562555.4143375416</v>
       </c>
       <c r="R25" t="n">
-        <v>6954739.97881452</v>
+        <v>6954835.60431945</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3499,12 +3499,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>17:10</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3531,7 +3526,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111574128</v>
+        <v>111574689</v>
       </c>
       <c r="B26" t="n">
         <v>96348</v>
@@ -3572,10 +3567,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>562555.4143375416</v>
+        <v>562517.0252856832</v>
       </c>
       <c r="R26" t="n">
-        <v>6954835.60431945</v>
+        <v>6954776.14289257</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3607,7 +3602,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3617,7 +3612,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3644,7 +3639,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111574689</v>
+        <v>111576450</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3685,10 +3680,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>562517.0252856832</v>
+        <v>562979.5212303887</v>
       </c>
       <c r="R27" t="n">
-        <v>6954776.14289257</v>
+        <v>6954739.97881452</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3720,7 +3715,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3730,7 +3725,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 36371-2022.xlsx
+++ b/artfynd/A 36371-2022.xlsx
@@ -2043,10 +2043,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111578233</v>
+        <v>111575796</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2055,25 +2055,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2084,10 +2084,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>563026.0554397166</v>
+        <v>562855.7640570825</v>
       </c>
       <c r="R13" t="n">
-        <v>6954541.256262898</v>
+        <v>6954651.349091855</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2269,10 +2269,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111573533</v>
+        <v>111574240</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2281,28 +2281,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2310,10 +2314,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562701.9737813871</v>
+        <v>562533.1227179464</v>
       </c>
       <c r="R15" t="n">
-        <v>6954788.374143652</v>
+        <v>6954848.029061474</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2345,7 +2349,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2355,7 +2359,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:26</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Familj med 5 talltitor. Permanent revir</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2382,7 +2391,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111573948</v>
+        <v>111573803</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2423,10 +2432,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>562576.2301468613</v>
+        <v>562591.0245237258</v>
       </c>
       <c r="R16" t="n">
-        <v>6954852.517936011</v>
+        <v>6954847.751526525</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2458,7 +2467,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2468,7 +2477,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2495,10 +2504,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111574240</v>
+        <v>111574403</v>
       </c>
       <c r="B17" t="n">
-        <v>56543</v>
+        <v>89686</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2511,28 +2520,24 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>103021</v>
+        <v>658</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2540,10 +2545,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>562533.1227179464</v>
+        <v>562547.0565141424</v>
       </c>
       <c r="R17" t="n">
-        <v>6954848.029061474</v>
+        <v>6954767.535469687</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2586,11 +2591,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>15:26</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Familj med 5 talltitor. Permanent revir</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2617,10 +2617,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111573746</v>
+        <v>111576037</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2629,25 +2629,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2658,10 +2658,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>562601.7570288588</v>
+        <v>562852.9463231879</v>
       </c>
       <c r="R18" t="n">
-        <v>6954814.918206804</v>
+        <v>6954606.325244571</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2843,10 +2843,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111575796</v>
+        <v>111574128</v>
       </c>
       <c r="B20" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2855,25 +2855,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2884,10 +2884,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562855.7640570825</v>
+        <v>562555.4143375416</v>
       </c>
       <c r="R20" t="n">
-        <v>6954651.349091855</v>
+        <v>6954835.60431945</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2956,7 +2956,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111575868</v>
+        <v>111574689</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562854.9195222461</v>
+        <v>562517.0252856832</v>
       </c>
       <c r="R21" t="n">
-        <v>6954623.341454657</v>
+        <v>6954776.14289257</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3069,10 +3069,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111574509</v>
+        <v>111574338</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3081,25 +3081,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3110,10 +3110,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562529.1073683554</v>
+        <v>562557.3535548041</v>
       </c>
       <c r="R22" t="n">
-        <v>6954769.030357216</v>
+        <v>6954757.635990249</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3182,7 +3182,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111576771</v>
+        <v>111573948</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3223,10 +3223,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562807.4867926922</v>
+        <v>562576.2301468613</v>
       </c>
       <c r="R23" t="n">
-        <v>6954821.585021482</v>
+        <v>6954852.517936011</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3295,10 +3295,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111578127</v>
+        <v>111578197</v>
       </c>
       <c r="B24" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3307,44 +3307,39 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>562937.8205991766</v>
+        <v>563026.0554397166</v>
       </c>
       <c r="R24" t="n">
-        <v>6954541.406048392</v>
+        <v>6954541.256262898</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3376,7 +3371,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3386,7 +3381,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3413,7 +3408,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111574128</v>
+        <v>111573746</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3454,10 +3449,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>562555.4143375416</v>
+        <v>562601.7570288588</v>
       </c>
       <c r="R25" t="n">
-        <v>6954835.60431945</v>
+        <v>6954814.918206804</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3489,7 +3484,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3499,7 +3494,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3526,10 +3521,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111574689</v>
+        <v>111575785</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3542,21 +3537,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3567,10 +3562,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>562517.0252856832</v>
+        <v>562859.2727272335</v>
       </c>
       <c r="R26" t="n">
-        <v>6954776.14289257</v>
+        <v>6954660.134623887</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3602,7 +3597,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3612,7 +3607,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3639,7 +3634,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111576450</v>
+        <v>111575868</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3680,10 +3675,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>562979.5212303887</v>
+        <v>562854.9195222461</v>
       </c>
       <c r="R27" t="n">
-        <v>6954739.97881452</v>
+        <v>6954623.341454657</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3715,7 +3710,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3725,12 +3720,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>17:10</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3757,10 +3747,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111575785</v>
+        <v>111573533</v>
       </c>
       <c r="B28" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3773,21 +3763,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3798,10 +3788,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>562859.2727272335</v>
+        <v>562701.9737813871</v>
       </c>
       <c r="R28" t="n">
-        <v>6954660.134623887</v>
+        <v>6954788.374143652</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3833,7 +3823,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3843,7 +3833,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3983,10 +3973,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111574403</v>
+        <v>111574509</v>
       </c>
       <c r="B30" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3995,25 +3985,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4024,10 +4014,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>562547.0565141424</v>
+        <v>562529.1073683554</v>
       </c>
       <c r="R30" t="n">
-        <v>6954767.535469687</v>
+        <v>6954769.030357216</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4059,7 +4049,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4069,7 +4059,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4096,10 +4086,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111574338</v>
+        <v>111578127</v>
       </c>
       <c r="B31" t="n">
-        <v>89686</v>
+        <v>56543</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4112,35 +4102,40 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>658</v>
+        <v>103021</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>562557.3535548041</v>
+        <v>562937.8205991766</v>
       </c>
       <c r="R31" t="n">
-        <v>6954757.635990249</v>
+        <v>6954541.406048392</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4172,7 +4167,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4182,7 +4177,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4209,7 +4204,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111573803</v>
+        <v>111576771</v>
       </c>
       <c r="B32" t="n">
         <v>96348</v>
@@ -4250,10 +4245,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>562591.0245237258</v>
+        <v>562807.4867926922</v>
       </c>
       <c r="R32" t="n">
-        <v>6954847.751526525</v>
+        <v>6954821.585021482</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4285,7 +4280,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4295,7 +4290,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4322,10 +4317,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111576037</v>
+        <v>111576450</v>
       </c>
       <c r="B33" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4334,25 +4329,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4363,10 +4358,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>562852.9463231879</v>
+        <v>562979.5212303887</v>
       </c>
       <c r="R33" t="n">
-        <v>6954606.325244571</v>
+        <v>6954739.97881452</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4398,7 +4393,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4408,7 +4403,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 36371-2022.xlsx
+++ b/artfynd/A 36371-2022.xlsx
@@ -3295,7 +3295,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111578197</v>
+        <v>111573746</v>
       </c>
       <c r="B24" t="n">
         <v>96348</v>
@@ -3336,10 +3336,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>563026.0554397166</v>
+        <v>562601.7570288588</v>
       </c>
       <c r="R24" t="n">
-        <v>6954541.256262898</v>
+        <v>6954814.918206804</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3408,10 +3408,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111573746</v>
+        <v>111575785</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3424,21 +3424,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3449,10 +3449,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>562601.7570288588</v>
+        <v>562859.2727272335</v>
       </c>
       <c r="R25" t="n">
-        <v>6954814.918206804</v>
+        <v>6954660.134623887</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3521,10 +3521,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111575785</v>
+        <v>111578197</v>
       </c>
       <c r="B26" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3537,21 +3537,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3562,10 +3562,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>562859.2727272335</v>
+        <v>563026.0554397166</v>
       </c>
       <c r="R26" t="n">
-        <v>6954660.134623887</v>
+        <v>6954541.256262898</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -4204,7 +4204,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111576771</v>
+        <v>111576450</v>
       </c>
       <c r="B32" t="n">
         <v>96348</v>
@@ -4245,10 +4245,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>562807.4867926922</v>
+        <v>562979.5212303887</v>
       </c>
       <c r="R32" t="n">
-        <v>6954821.585021482</v>
+        <v>6954739.97881452</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4290,7 +4290,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4317,7 +4322,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111576450</v>
+        <v>111576771</v>
       </c>
       <c r="B33" t="n">
         <v>96348</v>
@@ -4358,10 +4363,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>562979.5212303887</v>
+        <v>562807.4867926922</v>
       </c>
       <c r="R33" t="n">
-        <v>6954739.97881452</v>
+        <v>6954821.585021482</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4393,7 +4398,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4403,12 +4408,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>17:10</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 36371-2022.xlsx
+++ b/artfynd/A 36371-2022.xlsx
@@ -2043,10 +2043,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111575796</v>
+        <v>111576450</v>
       </c>
       <c r="B13" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2055,25 +2055,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2084,10 +2084,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562855.7640570825</v>
+        <v>562979.5212303887</v>
       </c>
       <c r="R13" t="n">
-        <v>6954651.349091855</v>
+        <v>6954739.97881452</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2129,7 +2129,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2156,10 +2161,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111574429</v>
+        <v>111573569</v>
       </c>
       <c r="B14" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2168,25 +2173,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2197,10 +2202,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>562547.0565141424</v>
+        <v>562701.9737813871</v>
       </c>
       <c r="R14" t="n">
-        <v>6954767.535469687</v>
+        <v>6954788.374143652</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2232,7 +2237,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2242,7 +2247,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2269,10 +2274,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111574240</v>
+        <v>111574128</v>
       </c>
       <c r="B15" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2281,32 +2286,28 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2314,10 +2315,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562533.1227179464</v>
+        <v>562555.4143375416</v>
       </c>
       <c r="R15" t="n">
-        <v>6954848.029061474</v>
+        <v>6954835.60431945</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2360,11 +2361,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>15:26</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Familj med 5 talltitor. Permanent revir</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2391,10 +2387,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111573803</v>
+        <v>111578127</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2403,39 +2399,44 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>562591.0245237258</v>
+        <v>562937.8205991766</v>
       </c>
       <c r="R16" t="n">
-        <v>6954847.751526525</v>
+        <v>6954541.406048392</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2467,7 +2468,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2477,7 +2478,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2504,7 +2505,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111574403</v>
+        <v>111575796</v>
       </c>
       <c r="B17" t="n">
         <v>89686</v>
@@ -2545,10 +2546,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>562547.0565141424</v>
+        <v>562855.7640570825</v>
       </c>
       <c r="R17" t="n">
-        <v>6954767.535469687</v>
+        <v>6954651.349091855</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2580,7 +2581,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2590,7 +2591,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2617,10 +2618,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111576037</v>
+        <v>111573866</v>
       </c>
       <c r="B18" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2629,25 +2630,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2658,10 +2659,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>562852.9463231879</v>
+        <v>562601.7570288588</v>
       </c>
       <c r="R18" t="n">
-        <v>6954606.325244571</v>
+        <v>6954814.918206804</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2693,7 +2694,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2703,7 +2704,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2730,10 +2731,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111576401</v>
+        <v>111578197</v>
       </c>
       <c r="B19" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2742,25 +2743,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2771,10 +2772,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>562964.914807545</v>
+        <v>563026.0554397166</v>
       </c>
       <c r="R19" t="n">
-        <v>6954710.791209211</v>
+        <v>6954541.256262898</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2806,7 +2807,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2816,7 +2817,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2843,10 +2844,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111574128</v>
+        <v>111575785</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2859,21 +2860,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2884,10 +2885,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562555.4143375416</v>
+        <v>562859.2727272335</v>
       </c>
       <c r="R20" t="n">
-        <v>6954835.60431945</v>
+        <v>6954660.134623887</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2919,7 +2920,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2929,7 +2930,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2956,7 +2957,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111574689</v>
+        <v>111573803</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2997,10 +2998,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562517.0252856832</v>
+        <v>562591.0245237258</v>
       </c>
       <c r="R21" t="n">
-        <v>6954776.14289257</v>
+        <v>6954847.751526525</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3032,7 +3033,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3042,7 +3043,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3069,10 +3070,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111574338</v>
+        <v>111574509</v>
       </c>
       <c r="B22" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3081,25 +3082,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3110,10 +3111,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562557.3535548041</v>
+        <v>562529.1073683554</v>
       </c>
       <c r="R22" t="n">
-        <v>6954757.635990249</v>
+        <v>6954769.030357216</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3145,7 +3146,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3155,7 +3156,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3182,7 +3183,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111573948</v>
+        <v>111575868</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3223,10 +3224,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562576.2301468613</v>
+        <v>562854.9195222461</v>
       </c>
       <c r="R23" t="n">
-        <v>6954852.517936011</v>
+        <v>6954623.341454657</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3258,7 +3259,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3268,7 +3269,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3295,10 +3296,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111573746</v>
+        <v>111574429</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3307,25 +3308,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3336,10 +3337,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>562601.7570288588</v>
+        <v>562547.0565141424</v>
       </c>
       <c r="R24" t="n">
-        <v>6954814.918206804</v>
+        <v>6954767.535469687</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3371,7 +3372,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3381,7 +3382,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3408,10 +3409,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111575785</v>
+        <v>111574334</v>
       </c>
       <c r="B25" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3420,25 +3421,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3449,10 +3450,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>562859.2727272335</v>
+        <v>562557.3535548041</v>
       </c>
       <c r="R25" t="n">
-        <v>6954660.134623887</v>
+        <v>6954757.635990249</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3484,7 +3485,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3494,7 +3495,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3521,10 +3522,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111578197</v>
+        <v>111574403</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3533,25 +3534,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3562,10 +3563,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>563026.0554397166</v>
+        <v>562547.0565141424</v>
       </c>
       <c r="R26" t="n">
-        <v>6954541.256262898</v>
+        <v>6954767.535469687</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3597,7 +3598,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3607,7 +3608,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3634,7 +3635,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111575868</v>
+        <v>111573948</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3675,10 +3676,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>562854.9195222461</v>
+        <v>562576.2301468613</v>
       </c>
       <c r="R27" t="n">
-        <v>6954623.341454657</v>
+        <v>6954852.517936011</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3710,7 +3711,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3720,7 +3721,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3747,7 +3748,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111573533</v>
+        <v>111576771</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3788,10 +3789,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>562701.9737813871</v>
+        <v>562807.4867926922</v>
       </c>
       <c r="R28" t="n">
-        <v>6954788.374143652</v>
+        <v>6954821.585021482</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3823,7 +3824,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3833,7 +3834,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3860,10 +3861,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111574334</v>
+        <v>111576401</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3872,25 +3873,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3901,10 +3902,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>562557.3535548041</v>
+        <v>562964.914807545</v>
       </c>
       <c r="R29" t="n">
-        <v>6954757.635990249</v>
+        <v>6954710.791209211</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3946,7 +3947,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3973,10 +3974,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111574509</v>
+        <v>111576037</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3985,25 +3986,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4014,10 +4015,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>562529.1073683554</v>
+        <v>562852.9463231879</v>
       </c>
       <c r="R30" t="n">
-        <v>6954769.030357216</v>
+        <v>6954606.325244571</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4049,7 +4050,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4059,7 +4060,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4086,10 +4087,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111578127</v>
+        <v>111574338</v>
       </c>
       <c r="B31" t="n">
-        <v>56543</v>
+        <v>89686</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4102,40 +4103,35 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>103021</v>
+        <v>658</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>562937.8205991766</v>
+        <v>562557.3535548041</v>
       </c>
       <c r="R31" t="n">
-        <v>6954541.406048392</v>
+        <v>6954757.635990249</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4167,7 +4163,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4177,7 +4173,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4204,10 +4200,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111576450</v>
+        <v>111574240</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4216,28 +4212,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4245,10 +4245,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>562979.5212303887</v>
+        <v>562533.1227179464</v>
       </c>
       <c r="R32" t="n">
-        <v>6954739.97881452</v>
+        <v>6954848.029061474</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4290,12 +4290,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>Familj med 5 talltitor. Permanent revir</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4322,7 +4322,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111576771</v>
+        <v>111574689</v>
       </c>
       <c r="B33" t="n">
         <v>96348</v>
@@ -4363,10 +4363,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>562807.4867926922</v>
+        <v>562517.0252856832</v>
       </c>
       <c r="R33" t="n">
-        <v>6954821.585021482</v>
+        <v>6954776.14289257</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4398,7 +4398,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 36371-2022.xlsx
+++ b/artfynd/A 36371-2022.xlsx
@@ -2043,10 +2043,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111576450</v>
+        <v>111574240</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2055,28 +2055,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2084,10 +2088,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562979.5212303887</v>
+        <v>562533.1227179464</v>
       </c>
       <c r="R13" t="n">
-        <v>6954739.97881452</v>
+        <v>6954848.029061474</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2119,7 +2123,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2129,12 +2133,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>Familj med 5 talltitor. Permanent revir</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2161,7 +2165,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111573569</v>
+        <v>111578233</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2202,10 +2206,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>562701.9737813871</v>
+        <v>563026.0554397166</v>
       </c>
       <c r="R14" t="n">
-        <v>6954788.374143652</v>
+        <v>6954541.256262898</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2237,7 +2241,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2247,7 +2251,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2274,10 +2278,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111574128</v>
+        <v>111574403</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2286,25 +2290,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2315,10 +2319,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562555.4143375416</v>
+        <v>562547.0565141424</v>
       </c>
       <c r="R15" t="n">
-        <v>6954835.60431945</v>
+        <v>6954767.535469687</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2387,10 +2391,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111578127</v>
+        <v>111573569</v>
       </c>
       <c r="B16" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2399,44 +2403,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>562937.8205991766</v>
+        <v>562701.9737813871</v>
       </c>
       <c r="R16" t="n">
-        <v>6954541.406048392</v>
+        <v>6954788.374143652</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2468,7 +2467,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2478,7 +2477,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2505,10 +2504,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111575796</v>
+        <v>111574128</v>
       </c>
       <c r="B17" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2517,25 +2516,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2546,10 +2545,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>562855.7640570825</v>
+        <v>562555.4143375416</v>
       </c>
       <c r="R17" t="n">
-        <v>6954651.349091855</v>
+        <v>6954835.60431945</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2581,7 +2580,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2591,7 +2590,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2618,10 +2617,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111573866</v>
+        <v>111574338</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2630,25 +2629,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2659,10 +2658,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>562601.7570288588</v>
+        <v>562557.3535548041</v>
       </c>
       <c r="R18" t="n">
-        <v>6954814.918206804</v>
+        <v>6954757.635990249</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2694,7 +2693,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2704,7 +2703,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2731,7 +2730,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111578197</v>
+        <v>111574030</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2772,10 +2771,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>563026.0554397166</v>
+        <v>562576.2301468613</v>
       </c>
       <c r="R19" t="n">
-        <v>6954541.256262898</v>
+        <v>6954852.517936011</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2807,7 +2806,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2817,7 +2816,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:23</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2844,10 +2848,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111575785</v>
+        <v>111576037</v>
       </c>
       <c r="B20" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2856,25 +2860,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2885,10 +2889,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562859.2727272335</v>
+        <v>562852.9463231879</v>
       </c>
       <c r="R20" t="n">
-        <v>6954660.134623887</v>
+        <v>6954606.325244571</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2920,7 +2924,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2930,7 +2934,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2957,10 +2961,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111573803</v>
+        <v>111575796</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2969,25 +2973,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2998,10 +3002,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562591.0245237258</v>
+        <v>562855.7640570825</v>
       </c>
       <c r="R21" t="n">
-        <v>6954847.751526525</v>
+        <v>6954651.349091855</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3033,7 +3037,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3043,7 +3047,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3070,10 +3074,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111574509</v>
+        <v>111574334</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3082,25 +3086,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3111,10 +3115,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562529.1073683554</v>
+        <v>562557.3535548041</v>
       </c>
       <c r="R22" t="n">
-        <v>6954769.030357216</v>
+        <v>6954757.635990249</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3146,7 +3150,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3156,7 +3160,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3183,7 +3187,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111575868</v>
+        <v>111574689</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3224,10 +3228,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562854.9195222461</v>
+        <v>562517.0252856832</v>
       </c>
       <c r="R23" t="n">
-        <v>6954623.341454657</v>
+        <v>6954776.14289257</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3259,7 +3263,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3269,7 +3273,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3296,10 +3300,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111574429</v>
+        <v>111578127</v>
       </c>
       <c r="B24" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3312,35 +3316,40 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>562547.0565141424</v>
+        <v>562937.8205991766</v>
       </c>
       <c r="R24" t="n">
-        <v>6954767.535469687</v>
+        <v>6954541.406048392</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3372,7 +3381,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3382,7 +3391,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3409,10 +3418,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111574334</v>
+        <v>111576401</v>
       </c>
       <c r="B25" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3421,25 +3430,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3450,10 +3459,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>562557.3535548041</v>
+        <v>562964.914807545</v>
       </c>
       <c r="R25" t="n">
-        <v>6954757.635990249</v>
+        <v>6954710.791209211</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3485,7 +3494,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3495,7 +3504,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3522,10 +3531,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111574403</v>
+        <v>111574509</v>
       </c>
       <c r="B26" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3534,25 +3543,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3563,10 +3572,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>562547.0565141424</v>
+        <v>562529.1073683554</v>
       </c>
       <c r="R26" t="n">
-        <v>6954767.535469687</v>
+        <v>6954769.030357216</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3598,7 +3607,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3608,7 +3617,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3635,7 +3644,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111573948</v>
+        <v>111573803</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3676,10 +3685,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>562576.2301468613</v>
+        <v>562591.0245237258</v>
       </c>
       <c r="R27" t="n">
-        <v>6954852.517936011</v>
+        <v>6954847.751526525</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3711,7 +3720,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3721,7 +3730,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3748,7 +3757,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111576771</v>
+        <v>111575868</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3789,10 +3798,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>562807.4867926922</v>
+        <v>562854.9195222461</v>
       </c>
       <c r="R28" t="n">
-        <v>6954821.585021482</v>
+        <v>6954623.341454657</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3824,7 +3833,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3834,7 +3843,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3861,10 +3870,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111576401</v>
+        <v>111576771</v>
       </c>
       <c r="B29" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3873,25 +3882,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3902,10 +3911,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>562964.914807545</v>
+        <v>562807.4867926922</v>
       </c>
       <c r="R29" t="n">
-        <v>6954710.791209211</v>
+        <v>6954821.585021482</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3937,7 +3946,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3947,7 +3956,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3974,10 +3983,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111576037</v>
+        <v>111575785</v>
       </c>
       <c r="B30" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3986,25 +3995,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4015,10 +4024,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>562852.9463231879</v>
+        <v>562859.2727272335</v>
       </c>
       <c r="R30" t="n">
-        <v>6954606.325244571</v>
+        <v>6954660.134623887</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4050,7 +4059,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4060,7 +4069,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4087,10 +4096,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111574338</v>
+        <v>111573746</v>
       </c>
       <c r="B31" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4099,25 +4108,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4128,10 +4137,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>562557.3535548041</v>
+        <v>562601.7570288588</v>
       </c>
       <c r="R31" t="n">
-        <v>6954757.635990249</v>
+        <v>6954814.918206804</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4163,7 +4172,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4173,7 +4182,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4200,10 +4209,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111574240</v>
+        <v>111574429</v>
       </c>
       <c r="B32" t="n">
-        <v>56543</v>
+        <v>89405</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4216,28 +4225,24 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4245,10 +4250,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>562533.1227179464</v>
+        <v>562547.0565141424</v>
       </c>
       <c r="R32" t="n">
-        <v>6954848.029061474</v>
+        <v>6954767.535469687</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4280,7 +4285,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4290,12 +4295,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>15:26</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Familj med 5 talltitor. Permanent revir</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4322,7 +4322,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111574689</v>
+        <v>111576450</v>
       </c>
       <c r="B33" t="n">
         <v>96348</v>
@@ -4363,10 +4363,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>562517.0252856832</v>
+        <v>562979.5212303887</v>
       </c>
       <c r="R33" t="n">
-        <v>6954776.14289257</v>
+        <v>6954739.97881452</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4398,7 +4398,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4408,7 +4408,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 36371-2022.xlsx
+++ b/artfynd/A 36371-2022.xlsx
@@ -2043,10 +2043,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111574240</v>
+        <v>111574338</v>
       </c>
       <c r="B13" t="n">
-        <v>56543</v>
+        <v>89686</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2059,28 +2059,24 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>103021</v>
+        <v>658</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2088,10 +2084,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562533.1227179464</v>
+        <v>562557.3535548041</v>
       </c>
       <c r="R13" t="n">
-        <v>6954848.029061474</v>
+        <v>6954757.635990249</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2134,11 +2130,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>15:26</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Familj med 5 talltitor. Permanent revir</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2165,10 +2156,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111578233</v>
+        <v>111574334</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2177,25 +2168,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2206,10 +2197,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>563026.0554397166</v>
+        <v>562557.3535548041</v>
       </c>
       <c r="R14" t="n">
-        <v>6954541.256262898</v>
+        <v>6954757.635990249</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2241,7 +2232,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2251,7 +2242,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2278,10 +2269,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111574403</v>
+        <v>111576401</v>
       </c>
       <c r="B15" t="n">
-        <v>89686</v>
+        <v>89369</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2290,25 +2281,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>658</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2319,10 +2310,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562547.0565141424</v>
+        <v>562964.914807545</v>
       </c>
       <c r="R15" t="n">
-        <v>6954767.535469687</v>
+        <v>6954710.791209211</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2354,7 +2345,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2364,7 +2355,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2391,10 +2382,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111573569</v>
+        <v>111575785</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2407,21 +2398,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2432,10 +2423,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>562701.9737813871</v>
+        <v>562859.2727272335</v>
       </c>
       <c r="R16" t="n">
-        <v>6954788.374143652</v>
+        <v>6954660.134623887</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2467,7 +2458,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2477,7 +2468,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2504,10 +2495,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111574128</v>
+        <v>111575796</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2516,25 +2507,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2545,10 +2536,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>562555.4143375416</v>
+        <v>562855.7640570825</v>
       </c>
       <c r="R17" t="n">
-        <v>6954835.60431945</v>
+        <v>6954651.349091855</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2580,7 +2571,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2590,7 +2581,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>16:39</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2617,10 +2608,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111574338</v>
+        <v>111573569</v>
       </c>
       <c r="B18" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2629,25 +2620,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2658,10 +2649,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>562557.3535548041</v>
+        <v>562701.9737813871</v>
       </c>
       <c r="R18" t="n">
-        <v>6954757.635990249</v>
+        <v>6954788.374143652</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2693,7 +2684,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2703,7 +2694,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2848,10 +2839,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111576037</v>
+        <v>111574240</v>
       </c>
       <c r="B20" t="n">
-        <v>89686</v>
+        <v>56543</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2864,24 +2855,28 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>658</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2889,10 +2884,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562852.9463231879</v>
+        <v>562533.1227179464</v>
       </c>
       <c r="R20" t="n">
-        <v>6954606.325244571</v>
+        <v>6954848.029061474</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2924,7 +2919,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2934,7 +2929,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>15:26</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Familj med 5 talltitor. Permanent revir</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2961,10 +2961,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111575796</v>
+        <v>111574128</v>
       </c>
       <c r="B21" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2973,25 +2973,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3002,10 +3002,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562855.7640570825</v>
+        <v>562555.4143375416</v>
       </c>
       <c r="R21" t="n">
-        <v>6954651.349091855</v>
+        <v>6954835.60431945</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3074,10 +3074,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111574334</v>
+        <v>111578127</v>
       </c>
       <c r="B22" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3090,35 +3090,40 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562557.3535548041</v>
+        <v>562937.8205991766</v>
       </c>
       <c r="R22" t="n">
-        <v>6954757.635990249</v>
+        <v>6954541.406048392</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3150,7 +3155,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3160,7 +3165,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:26</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3187,7 +3192,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111574689</v>
+        <v>111573803</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3228,10 +3233,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562517.0252856832</v>
+        <v>562591.0245237258</v>
       </c>
       <c r="R23" t="n">
-        <v>6954776.14289257</v>
+        <v>6954847.751526525</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3263,7 +3268,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3273,7 +3278,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3300,10 +3305,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111578127</v>
+        <v>111576771</v>
       </c>
       <c r="B24" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3312,44 +3317,39 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Tivsjöflon, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>562937.8205991766</v>
+        <v>562807.4867926922</v>
       </c>
       <c r="R24" t="n">
-        <v>6954541.406048392</v>
+        <v>6954821.585021482</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:24</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3418,10 +3418,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111576401</v>
+        <v>111576450</v>
       </c>
       <c r="B25" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3430,25 +3430,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3459,10 +3459,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>562964.914807545</v>
+        <v>562979.5212303887</v>
       </c>
       <c r="R25" t="n">
-        <v>6954710.791209211</v>
+        <v>6954739.97881452</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>17:10</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3504,7 +3504,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>16:51</t>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3531,7 +3536,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111574509</v>
+        <v>111573866</v>
       </c>
       <c r="B26" t="n">
         <v>96348</v>
@@ -3572,10 +3577,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>562529.1073683554</v>
+        <v>562601.7570288588</v>
       </c>
       <c r="R26" t="n">
-        <v>6954769.030357216</v>
+        <v>6954814.918206804</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3607,7 +3612,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3617,7 +3622,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3644,7 +3649,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111573803</v>
+        <v>111578197</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3685,10 +3690,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>562591.0245237258</v>
+        <v>563026.0554397166</v>
       </c>
       <c r="R27" t="n">
-        <v>6954847.751526525</v>
+        <v>6954541.256262898</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3720,7 +3725,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3730,7 +3735,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3757,7 +3762,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111575868</v>
+        <v>111574689</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3798,10 +3803,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>562854.9195222461</v>
+        <v>562517.0252856832</v>
       </c>
       <c r="R28" t="n">
-        <v>6954623.341454657</v>
+        <v>6954776.14289257</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3833,7 +3838,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3843,7 +3848,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>16:43</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3870,7 +3875,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111576771</v>
+        <v>111575868</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3911,10 +3916,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>562807.4867926922</v>
+        <v>562854.9195222461</v>
       </c>
       <c r="R29" t="n">
-        <v>6954821.585021482</v>
+        <v>6954623.341454657</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3946,7 +3951,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3956,7 +3961,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>16:43</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3983,10 +3988,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111575785</v>
+        <v>111574509</v>
       </c>
       <c r="B30" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3999,21 +4004,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4024,10 +4029,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>562859.2727272335</v>
+        <v>562529.1073683554</v>
       </c>
       <c r="R30" t="n">
-        <v>6954660.134623887</v>
+        <v>6954769.030357216</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4059,7 +4064,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4069,7 +4074,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>16:39</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4096,10 +4101,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111573746</v>
+        <v>111574403</v>
       </c>
       <c r="B31" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4108,25 +4113,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4137,10 +4142,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>562601.7570288588</v>
+        <v>562547.0565141424</v>
       </c>
       <c r="R31" t="n">
-        <v>6954814.918206804</v>
+        <v>6954767.535469687</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4172,7 +4177,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4182,7 +4187,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>15:26</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4209,10 +4214,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111574429</v>
+        <v>111576037</v>
       </c>
       <c r="B32" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4225,21 +4230,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4250,10 +4255,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>562547.0565141424</v>
+        <v>562852.9463231879</v>
       </c>
       <c r="R32" t="n">
-        <v>6954767.535469687</v>
+        <v>6954606.325244571</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4285,7 +4290,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4295,7 +4300,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>15:42</t>
+          <t>16:51</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4322,10 +4327,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111576450</v>
+        <v>111574429</v>
       </c>
       <c r="B33" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4334,25 +4339,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4363,10 +4368,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>562979.5212303887</v>
+        <v>562547.0565141424</v>
       </c>
       <c r="R33" t="n">
-        <v>6954739.97881452</v>
+        <v>6954767.535469687</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4398,7 +4403,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>17:10</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4408,12 +4413,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>17:10</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
+          <t>15:42</t>
         </is>
       </c>
       <c r="AD33" t="b">
